--- a/data/data_diet_Agazella.xlsx
+++ b/data/data_diet_Agazella.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92418C4-E113-47EC-8AF7-8577E3544AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944494B4-CD6B-40B8-96B3-4B497DC08497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -895,12 +895,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5540" ySplit="580" topLeftCell="B19" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5540" ySplit="580" topLeftCell="B1" activePane="bottomRight"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="H2" sqref="H2"/>
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22:H38"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2902,7 +2902,7 @@
         <v>73</v>
       </c>
       <c r="D56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
@@ -3631,7 +3631,7 @@
         <v>73</v>
       </c>
       <c r="D77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E77" t="s">
         <v>21</v>
@@ -5373,7 +5373,7 @@
         <v>73</v>
       </c>
       <c r="D125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E125" t="s">
         <v>21</v>
@@ -5907,7 +5907,7 @@
         <v>73</v>
       </c>
       <c r="D139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E139" t="s">
         <v>21</v>
@@ -6625,7 +6625,7 @@
         <v>73</v>
       </c>
       <c r="D158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E158" t="s">
         <v>21</v>
